--- a/in/extraction1/corrections/supp_D.xlsx
+++ b/in/extraction1/corrections/supp_D.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="32">
   <si>
     <t>Code sexe</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>Député</t>
+  </si>
+  <si>
+    <t>06</t>
   </si>
 </sst>
 </file>
@@ -604,7 +607,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -634,6 +637,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="16" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -958,14 +962,14 @@
   <dimension ref="A1:U117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="A1:U5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
@@ -1004,7 +1008,7 @@
       <c r="B1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="17" t="s">
         <v>21</v>
       </c>
       <c r="D1" s="13" t="s">
@@ -1069,8 +1073,8 @@
       <c r="B2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="6">
-        <v>6</v>
+      <c r="C2" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>28</v>
@@ -1134,8 +1138,8 @@
       <c r="B3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="6">
-        <v>6</v>
+      <c r="C3" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>28</v>
@@ -1199,8 +1203,8 @@
       <c r="B4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="6">
-        <v>6</v>
+      <c r="C4" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>28</v>
@@ -1264,8 +1268,8 @@
       <c r="B5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="6">
-        <v>6</v>
+      <c r="C5" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>28</v>
@@ -1324,6 +1328,7 @@
     </row>
     <row r="6" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
+      <c r="C6" s="5"/>
       <c r="E6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
@@ -1333,6 +1338,7 @@
     </row>
     <row r="7" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
+      <c r="C7" s="5"/>
       <c r="E7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
@@ -1340,6 +1346,7 @@
     </row>
     <row r="8" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
+      <c r="C8" s="5"/>
       <c r="E8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
@@ -1347,6 +1354,7 @@
     </row>
     <row r="9" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
+      <c r="C9" s="5"/>
       <c r="E9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
@@ -1356,6 +1364,7 @@
     </row>
     <row r="10" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
+      <c r="C10" s="5"/>
       <c r="E10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
@@ -1363,6 +1372,7 @@
     </row>
     <row r="11" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
+      <c r="C11" s="5"/>
       <c r="E11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
@@ -1371,6 +1381,7 @@
     </row>
     <row r="12" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
+      <c r="C12" s="5"/>
       <c r="E12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
@@ -1380,6 +1391,7 @@
     </row>
     <row r="13" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
+      <c r="C13" s="5"/>
       <c r="E13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
@@ -1388,6 +1400,7 @@
     </row>
     <row r="14" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
+      <c r="C14" s="5"/>
       <c r="E14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
@@ -1397,6 +1410,7 @@
     </row>
     <row r="15" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
+      <c r="C15" s="5"/>
       <c r="E15" s="7"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
@@ -1405,6 +1419,7 @@
     </row>
     <row r="16" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
+      <c r="C16" s="5"/>
       <c r="E16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
@@ -1414,6 +1429,7 @@
     </row>
     <row r="17" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
+      <c r="C17" s="5"/>
       <c r="E17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
@@ -1421,6 +1437,7 @@
     </row>
     <row r="18" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
+      <c r="C18" s="5"/>
       <c r="E18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
@@ -1430,6 +1447,7 @@
     </row>
     <row r="19" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
+      <c r="C19" s="5"/>
       <c r="E19" s="7"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
@@ -1437,6 +1455,7 @@
     </row>
     <row r="20" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
+      <c r="C20" s="5"/>
       <c r="E20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
@@ -1444,6 +1463,7 @@
     </row>
     <row r="21" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
+      <c r="C21" s="5"/>
       <c r="E21" s="7"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
@@ -1453,6 +1473,7 @@
     </row>
     <row r="22" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
+      <c r="C22" s="5"/>
       <c r="E22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
@@ -1462,6 +1483,7 @@
     </row>
     <row r="23" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
+      <c r="C23" s="5"/>
       <c r="E23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
@@ -1471,6 +1493,7 @@
     </row>
     <row r="24" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
+      <c r="C24" s="5"/>
       <c r="E24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
@@ -1478,6 +1501,7 @@
     </row>
     <row r="25" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
+      <c r="C25" s="5"/>
       <c r="E25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
@@ -1487,6 +1511,7 @@
     </row>
     <row r="26" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
+      <c r="C26" s="5"/>
       <c r="E26" s="7"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
@@ -1494,6 +1519,7 @@
     </row>
     <row r="27" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
+      <c r="C27" s="5"/>
       <c r="E27" s="7"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
@@ -1503,6 +1529,7 @@
     </row>
     <row r="28" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
+      <c r="C28" s="5"/>
       <c r="E28" s="7"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
@@ -1512,6 +1539,7 @@
     </row>
     <row r="29" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
+      <c r="C29" s="5"/>
       <c r="E29" s="7"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
@@ -1520,6 +1548,7 @@
     </row>
     <row r="30" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
+      <c r="C30" s="5"/>
       <c r="E30" s="7"/>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
@@ -1529,6 +1558,7 @@
     </row>
     <row r="31" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
+      <c r="C31" s="5"/>
       <c r="E31" s="7"/>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
@@ -1536,6 +1566,7 @@
     </row>
     <row r="32" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
+      <c r="C32" s="5"/>
       <c r="E32" s="7"/>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
@@ -1543,6 +1574,7 @@
     </row>
     <row r="33" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
+      <c r="C33" s="5"/>
       <c r="E33" s="7"/>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
@@ -1552,6 +1584,7 @@
     </row>
     <row r="34" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
+      <c r="C34" s="5"/>
       <c r="E34" s="7"/>
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
@@ -1561,6 +1594,7 @@
     </row>
     <row r="35" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
+      <c r="C35" s="5"/>
       <c r="E35" s="7"/>
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
@@ -1570,6 +1604,7 @@
     </row>
     <row r="36" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
+      <c r="C36" s="5"/>
       <c r="E36" s="7"/>
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
@@ -1579,6 +1614,7 @@
     </row>
     <row r="37" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
+      <c r="C37" s="5"/>
       <c r="E37" s="7"/>
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
@@ -1586,6 +1622,7 @@
     </row>
     <row r="38" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
+      <c r="C38" s="5"/>
       <c r="E38" s="7"/>
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
@@ -1593,6 +1630,7 @@
     </row>
     <row r="39" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
+      <c r="C39" s="5"/>
       <c r="E39" s="7"/>
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
@@ -1600,6 +1638,7 @@
     </row>
     <row r="40" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
+      <c r="C40" s="5"/>
       <c r="E40" s="7"/>
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
@@ -1609,6 +1648,7 @@
     </row>
     <row r="41" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
+      <c r="C41" s="5"/>
       <c r="E41" s="7"/>
       <c r="J41" s="7"/>
       <c r="K41" s="7"/>
@@ -1618,6 +1658,7 @@
     </row>
     <row r="42" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
+      <c r="C42" s="5"/>
       <c r="E42" s="7"/>
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
@@ -1627,6 +1668,7 @@
     </row>
     <row r="43" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
+      <c r="C43" s="5"/>
       <c r="E43" s="7"/>
       <c r="J43" s="7"/>
       <c r="K43" s="7"/>
@@ -1635,6 +1677,7 @@
     </row>
     <row r="44" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
+      <c r="C44" s="5"/>
       <c r="E44" s="7"/>
       <c r="J44" s="7"/>
       <c r="K44" s="7"/>
@@ -1644,6 +1687,7 @@
     </row>
     <row r="45" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
+      <c r="C45" s="5"/>
       <c r="E45" s="7"/>
       <c r="J45" s="7"/>
       <c r="K45" s="7"/>
@@ -1652,6 +1696,7 @@
     </row>
     <row r="46" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
+      <c r="C46" s="5"/>
       <c r="E46" s="7"/>
       <c r="J46" s="7"/>
       <c r="K46" s="7"/>
@@ -1659,6 +1704,7 @@
     </row>
     <row r="47" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
+      <c r="C47" s="5"/>
       <c r="E47" s="7"/>
       <c r="J47" s="7"/>
       <c r="K47" s="7"/>
@@ -1666,6 +1712,7 @@
     </row>
     <row r="48" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
+      <c r="C48" s="5"/>
       <c r="E48" s="7"/>
       <c r="J48" s="7"/>
       <c r="K48" s="7"/>
@@ -1673,6 +1720,7 @@
     </row>
     <row r="49" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
+      <c r="C49" s="5"/>
       <c r="E49" s="7"/>
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
@@ -1681,6 +1729,7 @@
     </row>
     <row r="50" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
+      <c r="C50" s="5"/>
       <c r="E50" s="7"/>
       <c r="J50" s="7"/>
       <c r="K50" s="7"/>
@@ -1688,6 +1737,7 @@
     </row>
     <row r="51" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
+      <c r="C51" s="5"/>
       <c r="E51" s="7"/>
       <c r="J51" s="7"/>
       <c r="K51" s="7"/>
@@ -1696,6 +1746,7 @@
     </row>
     <row r="52" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
+      <c r="C52" s="5"/>
       <c r="E52" s="7"/>
       <c r="J52" s="7"/>
       <c r="K52" s="7"/>
@@ -1705,6 +1756,7 @@
     </row>
     <row r="53" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
+      <c r="C53" s="5"/>
       <c r="E53" s="7"/>
       <c r="J53" s="7"/>
       <c r="K53" s="7"/>
@@ -1712,6 +1764,7 @@
     </row>
     <row r="54" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
+      <c r="C54" s="5"/>
       <c r="E54" s="7"/>
       <c r="J54" s="7"/>
       <c r="K54" s="7"/>
@@ -1719,6 +1772,7 @@
     </row>
     <row r="55" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5"/>
+      <c r="C55" s="5"/>
       <c r="E55" s="7"/>
       <c r="J55" s="7"/>
       <c r="K55" s="7"/>
@@ -1728,6 +1782,7 @@
     </row>
     <row r="56" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5"/>
+      <c r="C56" s="5"/>
       <c r="E56" s="7"/>
       <c r="J56" s="7"/>
       <c r="K56" s="7"/>
@@ -1737,6 +1792,7 @@
     </row>
     <row r="57" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
+      <c r="C57" s="5"/>
       <c r="E57" s="7"/>
       <c r="J57" s="7"/>
       <c r="K57" s="7"/>
@@ -1746,6 +1802,7 @@
     </row>
     <row r="58" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5"/>
+      <c r="C58" s="5"/>
       <c r="E58" s="7"/>
       <c r="J58" s="7"/>
       <c r="K58" s="7"/>
@@ -1755,6 +1812,7 @@
     </row>
     <row r="59" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
+      <c r="C59" s="5"/>
       <c r="E59" s="7"/>
       <c r="J59" s="7"/>
       <c r="K59" s="7"/>
@@ -1764,6 +1822,7 @@
     </row>
     <row r="60" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
+      <c r="C60" s="5"/>
       <c r="E60" s="7"/>
       <c r="J60" s="7"/>
       <c r="K60" s="7"/>
@@ -1773,6 +1832,7 @@
     </row>
     <row r="61" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5"/>
+      <c r="C61" s="5"/>
       <c r="E61" s="7"/>
       <c r="J61" s="7"/>
       <c r="K61" s="7"/>
@@ -1782,6 +1842,7 @@
     </row>
     <row r="62" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5"/>
+      <c r="C62" s="5"/>
       <c r="E62" s="7"/>
       <c r="J62" s="7"/>
       <c r="K62" s="7"/>
@@ -1791,6 +1852,7 @@
     </row>
     <row r="63" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5"/>
+      <c r="C63" s="5"/>
       <c r="E63" s="7"/>
       <c r="J63" s="7"/>
       <c r="K63" s="7"/>
@@ -1798,6 +1860,7 @@
     </row>
     <row r="64" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
+      <c r="C64" s="5"/>
       <c r="E64" s="7"/>
       <c r="J64" s="7"/>
       <c r="K64" s="7"/>
@@ -1805,6 +1868,7 @@
     </row>
     <row r="65" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5"/>
+      <c r="C65" s="5"/>
       <c r="E65" s="7"/>
       <c r="J65" s="7"/>
       <c r="K65" s="7"/>
@@ -1812,6 +1876,7 @@
     </row>
     <row r="66" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5"/>
+      <c r="C66" s="5"/>
       <c r="E66" s="7"/>
       <c r="J66" s="7"/>
       <c r="K66" s="7"/>
@@ -1819,6 +1884,7 @@
     </row>
     <row r="67" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5"/>
+      <c r="C67" s="5"/>
       <c r="E67" s="7"/>
       <c r="J67" s="7"/>
       <c r="K67" s="7"/>
@@ -1828,6 +1894,7 @@
     </row>
     <row r="68" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="5"/>
+      <c r="C68" s="5"/>
       <c r="E68" s="7"/>
       <c r="J68" s="7"/>
       <c r="K68" s="7"/>
@@ -1837,6 +1904,7 @@
     </row>
     <row r="69" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
+      <c r="C69" s="5"/>
       <c r="E69" s="7"/>
       <c r="J69" s="7"/>
       <c r="K69" s="7"/>
@@ -1844,6 +1912,7 @@
     </row>
     <row r="70" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="5"/>
+      <c r="C70" s="5"/>
       <c r="E70" s="7"/>
       <c r="J70" s="7"/>
       <c r="K70" s="7"/>
@@ -1853,6 +1922,7 @@
     </row>
     <row r="71" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
+      <c r="C71" s="5"/>
       <c r="E71" s="7"/>
       <c r="J71" s="7"/>
       <c r="K71" s="7"/>
@@ -1862,6 +1932,7 @@
     </row>
     <row r="72" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5"/>
+      <c r="C72" s="5"/>
       <c r="E72" s="7"/>
       <c r="J72" s="7"/>
       <c r="K72" s="7"/>
@@ -1869,6 +1940,7 @@
     </row>
     <row r="73" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="5"/>
+      <c r="C73" s="5"/>
       <c r="E73" s="7"/>
       <c r="J73" s="7"/>
       <c r="K73" s="7"/>
@@ -1877,6 +1949,7 @@
     </row>
     <row r="74" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="5"/>
+      <c r="C74" s="5"/>
       <c r="E74" s="7"/>
       <c r="J74" s="7"/>
       <c r="K74" s="7"/>
@@ -1885,6 +1958,7 @@
     </row>
     <row r="75" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="5"/>
+      <c r="C75" s="5"/>
       <c r="E75" s="7"/>
       <c r="J75" s="7"/>
       <c r="K75" s="7"/>
@@ -1894,6 +1968,7 @@
     </row>
     <row r="76" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5"/>
+      <c r="C76" s="5"/>
       <c r="E76" s="7"/>
       <c r="J76" s="7"/>
       <c r="K76" s="7"/>
@@ -1903,6 +1978,7 @@
     </row>
     <row r="77" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="5"/>
+      <c r="C77" s="5"/>
       <c r="E77" s="7"/>
       <c r="J77" s="7"/>
       <c r="K77" s="7"/>
@@ -1910,6 +1986,7 @@
     </row>
     <row r="78" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5"/>
+      <c r="C78" s="5"/>
       <c r="E78" s="7"/>
       <c r="J78" s="7"/>
       <c r="K78" s="7"/>
@@ -1917,6 +1994,7 @@
     </row>
     <row r="79" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5"/>
+      <c r="C79" s="5"/>
       <c r="E79" s="7"/>
       <c r="J79" s="7"/>
       <c r="K79" s="7"/>
@@ -1926,6 +2004,7 @@
     </row>
     <row r="80" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="5"/>
+      <c r="C80" s="5"/>
       <c r="E80" s="7"/>
       <c r="J80" s="7"/>
       <c r="K80" s="7"/>
@@ -1933,6 +2012,7 @@
     </row>
     <row r="81" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="5"/>
+      <c r="C81" s="5"/>
       <c r="E81" s="7"/>
       <c r="J81" s="7"/>
       <c r="K81" s="7"/>
@@ -1942,6 +2022,7 @@
     </row>
     <row r="82" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5"/>
+      <c r="C82" s="5"/>
       <c r="E82" s="7"/>
       <c r="J82" s="7"/>
       <c r="K82" s="7"/>
@@ -1951,6 +2032,7 @@
     </row>
     <row r="83" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="5"/>
+      <c r="C83" s="5"/>
       <c r="E83" s="7"/>
       <c r="J83" s="7"/>
       <c r="K83" s="7"/>
@@ -1959,6 +2041,7 @@
     </row>
     <row r="84" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5"/>
+      <c r="C84" s="5"/>
       <c r="E84" s="7"/>
       <c r="J84" s="7"/>
       <c r="K84" s="7"/>
@@ -1966,6 +2049,7 @@
     </row>
     <row r="85" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5"/>
+      <c r="C85" s="5"/>
       <c r="E85" s="7"/>
       <c r="J85" s="7"/>
       <c r="K85" s="7"/>
@@ -1973,6 +2057,7 @@
     </row>
     <row r="86" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="5"/>
+      <c r="C86" s="5"/>
       <c r="E86" s="7"/>
       <c r="J86" s="7"/>
       <c r="K86" s="7"/>
@@ -1981,6 +2066,7 @@
     </row>
     <row r="87" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="5"/>
+      <c r="C87" s="5"/>
       <c r="E87" s="7"/>
       <c r="J87" s="7"/>
       <c r="K87" s="7"/>
@@ -1988,6 +2074,7 @@
     </row>
     <row r="88" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="5"/>
+      <c r="C88" s="5"/>
       <c r="E88" s="7"/>
       <c r="J88" s="7"/>
       <c r="K88" s="7"/>
@@ -1997,6 +2084,7 @@
     </row>
     <row r="89" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="5"/>
+      <c r="C89" s="5"/>
       <c r="E89" s="7"/>
       <c r="J89" s="7"/>
       <c r="K89" s="7"/>
@@ -2006,6 +2094,7 @@
     </row>
     <row r="90" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="5"/>
+      <c r="C90" s="5"/>
       <c r="E90" s="7"/>
       <c r="J90" s="7"/>
       <c r="K90" s="7"/>
@@ -2015,6 +2104,7 @@
     </row>
     <row r="91" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="5"/>
+      <c r="C91" s="5"/>
       <c r="E91" s="7"/>
       <c r="J91" s="7"/>
       <c r="K91" s="7"/>
@@ -2022,6 +2112,7 @@
     </row>
     <row r="92" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="5"/>
+      <c r="C92" s="5"/>
       <c r="E92" s="7"/>
       <c r="J92" s="7"/>
       <c r="K92" s="7"/>
@@ -2029,6 +2120,7 @@
     </row>
     <row r="93" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5"/>
+      <c r="C93" s="5"/>
       <c r="E93" s="7"/>
       <c r="J93" s="7"/>
       <c r="K93" s="7"/>
@@ -2038,6 +2130,7 @@
     </row>
     <row r="94" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="5"/>
+      <c r="C94" s="5"/>
       <c r="E94" s="7"/>
       <c r="J94" s="7"/>
       <c r="K94" s="7"/>
@@ -2047,6 +2140,7 @@
     </row>
     <row r="95" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="5"/>
+      <c r="C95" s="5"/>
       <c r="E95" s="7"/>
       <c r="J95" s="7"/>
       <c r="K95" s="7"/>
@@ -2056,6 +2150,7 @@
     </row>
     <row r="96" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="5"/>
+      <c r="C96" s="5"/>
       <c r="E96" s="7"/>
       <c r="J96" s="7"/>
       <c r="K96" s="7"/>
@@ -2065,6 +2160,7 @@
     </row>
     <row r="97" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="5"/>
+      <c r="C97" s="5"/>
       <c r="E97" s="7"/>
       <c r="J97" s="7"/>
       <c r="K97" s="7"/>
@@ -2072,6 +2168,7 @@
     </row>
     <row r="98" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5"/>
+      <c r="C98" s="5"/>
       <c r="E98" s="7"/>
       <c r="J98" s="7"/>
       <c r="K98" s="7"/>
@@ -2081,6 +2178,7 @@
     </row>
     <row r="99" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5"/>
+      <c r="C99" s="5"/>
       <c r="E99" s="7"/>
       <c r="J99" s="7"/>
       <c r="K99" s="7"/>
@@ -2090,6 +2188,7 @@
     </row>
     <row r="100" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="5"/>
+      <c r="C100" s="5"/>
       <c r="E100" s="7"/>
       <c r="J100" s="7"/>
       <c r="K100" s="7"/>
@@ -2097,6 +2196,7 @@
     </row>
     <row r="101" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="5"/>
+      <c r="C101" s="5"/>
       <c r="E101" s="7"/>
       <c r="J101" s="7"/>
       <c r="K101" s="7"/>
@@ -2105,6 +2205,7 @@
     </row>
     <row r="102" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="5"/>
+      <c r="C102" s="5"/>
       <c r="E102" s="7"/>
       <c r="J102" s="7"/>
       <c r="K102" s="7"/>
@@ -2114,6 +2215,7 @@
     </row>
     <row r="103" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="5"/>
+      <c r="C103" s="5"/>
       <c r="E103" s="7"/>
       <c r="J103" s="7"/>
       <c r="K103" s="7"/>
@@ -2122,6 +2224,7 @@
     </row>
     <row r="104" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="5"/>
+      <c r="C104" s="5"/>
       <c r="E104" s="7"/>
       <c r="J104" s="7"/>
       <c r="K104" s="7"/>
@@ -2129,6 +2232,7 @@
     </row>
     <row r="105" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="5"/>
+      <c r="C105" s="5"/>
       <c r="E105" s="7"/>
       <c r="J105" s="7"/>
       <c r="K105" s="7"/>
@@ -2138,6 +2242,7 @@
     </row>
     <row r="106" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="5"/>
+      <c r="C106" s="5"/>
       <c r="E106" s="7"/>
       <c r="J106" s="7"/>
       <c r="K106" s="7"/>
@@ -2147,6 +2252,7 @@
     </row>
     <row r="107" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="5"/>
+      <c r="C107" s="5"/>
       <c r="E107" s="7"/>
       <c r="J107" s="7"/>
       <c r="K107" s="7"/>
@@ -2154,6 +2260,7 @@
     </row>
     <row r="108" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="5"/>
+      <c r="C108" s="5"/>
       <c r="E108" s="7"/>
       <c r="J108" s="7"/>
       <c r="K108" s="7"/>
@@ -2163,6 +2270,7 @@
     </row>
     <row r="109" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="5"/>
+      <c r="C109" s="5"/>
       <c r="E109" s="7"/>
       <c r="J109" s="7"/>
       <c r="K109" s="7"/>
@@ -2170,6 +2278,7 @@
     </row>
     <row r="110" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="5"/>
+      <c r="C110" s="5"/>
       <c r="E110" s="7"/>
       <c r="J110" s="7"/>
       <c r="K110" s="7"/>
@@ -2179,6 +2288,7 @@
     </row>
     <row r="111" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="5"/>
+      <c r="C111" s="5"/>
       <c r="E111" s="7"/>
       <c r="J111" s="7"/>
       <c r="K111" s="7"/>
@@ -2188,6 +2298,7 @@
     </row>
     <row r="112" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="5"/>
+      <c r="C112" s="5"/>
       <c r="E112" s="7"/>
       <c r="J112" s="7"/>
       <c r="K112" s="7"/>
@@ -2195,6 +2306,7 @@
     </row>
     <row r="113" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="5"/>
+      <c r="C113" s="5"/>
       <c r="E113" s="7"/>
       <c r="J113" s="7"/>
       <c r="K113" s="7"/>
@@ -2202,6 +2314,7 @@
     </row>
     <row r="114" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="5"/>
+      <c r="C114" s="5"/>
       <c r="E114" s="7"/>
       <c r="J114" s="7"/>
       <c r="K114" s="7"/>
@@ -2209,6 +2322,7 @@
     </row>
     <row r="115" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="5"/>
+      <c r="C115" s="5"/>
       <c r="E115" s="7"/>
       <c r="J115" s="7"/>
       <c r="K115" s="7"/>
@@ -2218,6 +2332,7 @@
     </row>
     <row r="116" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="5"/>
+      <c r="C116" s="5"/>
       <c r="E116" s="11"/>
       <c r="J116" s="7"/>
       <c r="K116" s="7"/>
@@ -2227,6 +2342,7 @@
     </row>
     <row r="117" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="5"/>
+      <c r="C117" s="5"/>
       <c r="E117" s="7"/>
       <c r="J117" s="7"/>
       <c r="K117" s="7"/>
